--- a/readme/wiringDiagrams.xlsx
+++ b/readme/wiringDiagrams.xlsx
@@ -176,7 +176,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -509,6 +509,21 @@
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -571,9 +586,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -628,6 +640,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -912,7 +927,7 @@
   <dimension ref="B1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -928,22 +943,22 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="40" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="40"/>
-      <c r="G2" s="41"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="40"/>
     </row>
     <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="41" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -955,12 +970,12 @@
       <c r="F3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="23" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="25">
+      <c r="B4" s="24">
         <v>6</v>
       </c>
       <c r="C4" s="7"/>
@@ -973,12 +988,12 @@
       <c r="F4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="25" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="27">
+      <c r="B5" s="26">
         <v>1</v>
       </c>
       <c r="C5" s="11"/>
@@ -991,10 +1006,10 @@
       <c r="F5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="28"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="25">
+      <c r="B6" s="24">
         <v>19</v>
       </c>
       <c r="C6" s="7">
@@ -1007,10 +1022,10 @@
         <v>12</v>
       </c>
       <c r="F6" s="15"/>
-      <c r="G6" s="29"/>
+      <c r="G6" s="28"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="25">
+      <c r="B7" s="24">
         <v>21</v>
       </c>
       <c r="C7" s="7">
@@ -1021,10 +1036,10 @@
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="15"/>
-      <c r="G7" s="29"/>
+      <c r="G7" s="28"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="25">
+      <c r="B8" s="24">
         <v>23</v>
       </c>
       <c r="C8" s="7">
@@ -1037,10 +1052,10 @@
         <v>15</v>
       </c>
       <c r="F8" s="14"/>
-      <c r="G8" s="28"/>
+      <c r="G8" s="27"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="30">
+      <c r="B9" s="29">
         <v>29</v>
       </c>
       <c r="C9" s="17">
@@ -1053,10 +1068,10 @@
         <v>17</v>
       </c>
       <c r="F9" s="15"/>
-      <c r="G9" s="29"/>
+      <c r="G9" s="28"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="25">
+      <c r="B10" s="24">
         <v>31</v>
       </c>
       <c r="C10" s="7">
@@ -1069,10 +1084,10 @@
         <v>19</v>
       </c>
       <c r="F10" s="15"/>
-      <c r="G10" s="29"/>
+      <c r="G10" s="28"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="31">
+      <c r="B11" s="30">
         <v>33</v>
       </c>
       <c r="C11" s="11">
@@ -1085,19 +1100,19 @@
         <v>21</v>
       </c>
       <c r="F11" s="21"/>
-      <c r="G11" s="28"/>
+      <c r="G11" s="27"/>
     </row>
     <row r="12" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="32"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="35" t="s">
+      <c r="B12" s="31"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="36" t="s">
+      <c r="F12" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="37" t="s">
+      <c r="G12" s="36" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1107,5 +1122,6 @@
     <mergeCell ref="E2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>